--- a/gzl_reporte/report/FormatoEntrevista.xlsx
+++ b/gzl_reporte/report/FormatoEntrevista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gizlocorp\promoautoecuador\gzl_reporte\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C53E4D6-5300-49AD-8D89-8AA1C236506E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DF1505-C737-4D44-ABC3-7128E455812F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,113 +661,113 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -847,13 +847,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>4892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>937260</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>340389</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -868,8 +868,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="180975"/>
-          <a:ext cx="937260" cy="853440"/>
+          <a:off x="0" y="4892"/>
+          <a:ext cx="937260" cy="978435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1294,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A50" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F80" sqref="A1:F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1311,21 +1311,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="14" t="s">
         <v>87</v>
       </c>
@@ -1333,9 +1333,9 @@
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="14" t="s">
         <v>88</v>
       </c>
@@ -1343,252 +1343,252 @@
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="49"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="A6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
@@ -1597,116 +1597,116 @@
       <c r="B27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27" t="s">
+      <c r="D27" s="30"/>
+      <c r="E27" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="27"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="28">
-        <v>0</v>
-      </c>
-      <c r="F28" s="28"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32">
+        <v>0</v>
+      </c>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="28">
-        <v>0</v>
-      </c>
-      <c r="F29" s="28"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32">
+        <v>0</v>
+      </c>
+      <c r="F29" s="32"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="28">
-        <v>0</v>
-      </c>
-      <c r="F30" s="28"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="32">
+        <v>0</v>
+      </c>
+      <c r="F30" s="32"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="28">
-        <v>0</v>
-      </c>
-      <c r="F31" s="28"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="32">
+        <v>0</v>
+      </c>
+      <c r="F31" s="32"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="28">
-        <v>0</v>
-      </c>
-      <c r="F32" s="28"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="32"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="28">
-        <v>0</v>
-      </c>
-      <c r="F33" s="28"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="32">
+        <v>0</v>
+      </c>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="28">
-        <v>0</v>
-      </c>
-      <c r="F34" s="28"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32">
+        <v>0</v>
+      </c>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="6" t="s">
         <v>22</v>
       </c>
@@ -1715,14 +1715,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="7">
         <v>0</v>
       </c>
@@ -1731,12 +1731,12 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="20" t="s">
+      <c r="A38" s="45"/>
+      <c r="B38" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="7">
         <v>0</v>
       </c>
@@ -1745,12 +1745,12 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="20" t="s">
+      <c r="A39" s="45"/>
+      <c r="B39" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="7">
         <f>SUM(E37:E38)</f>
         <v>0</v>
@@ -1760,27 +1760,27 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="20" t="s">
+      <c r="A40" s="45"/>
+      <c r="B40" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="29">
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="44">
         <f>E39+F39</f>
         <v>0</v>
       </c>
-      <c r="F40" s="29"/>
+      <c r="F40" s="44"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
       <c r="E41" s="7">
         <v>0</v>
       </c>
@@ -1789,12 +1789,12 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="20" t="s">
+      <c r="A42" s="45"/>
+      <c r="B42" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
       <c r="E42" s="7">
         <v>0</v>
       </c>
@@ -1803,12 +1803,12 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="20" t="s">
+      <c r="A43" s="45"/>
+      <c r="B43" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
       <c r="E43" s="7">
         <v>0</v>
       </c>
@@ -1817,12 +1817,12 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="20" t="s">
+      <c r="A44" s="45"/>
+      <c r="B44" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
       <c r="E44" s="7">
         <v>0</v>
       </c>
@@ -1831,12 +1831,12 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="20" t="s">
+      <c r="A45" s="45"/>
+      <c r="B45" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
       <c r="E45" s="7">
         <v>0</v>
       </c>
@@ -1845,12 +1845,12 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="20" t="s">
+      <c r="A46" s="45"/>
+      <c r="B46" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
       <c r="E46" s="7">
         <v>0</v>
       </c>
@@ -1859,12 +1859,12 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="20" t="s">
+      <c r="A47" s="45"/>
+      <c r="B47" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
       <c r="E47" s="7">
         <v>0</v>
       </c>
@@ -1873,12 +1873,12 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="20" t="s">
+      <c r="A48" s="45"/>
+      <c r="B48" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
       <c r="E48" s="7">
         <v>0</v>
       </c>
@@ -1887,12 +1887,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="20" t="s">
+      <c r="A49" s="45"/>
+      <c r="B49" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
       <c r="E49" s="7">
         <v>0</v>
       </c>
@@ -1901,12 +1901,12 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="20" t="s">
+      <c r="A50" s="45"/>
+      <c r="B50" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
       <c r="E50" s="7">
         <f>SUM(E41:E48)</f>
         <v>0</v>
@@ -1917,40 +1917,40 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="20" t="s">
+      <c r="A51" s="45"/>
+      <c r="B51" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="29">
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="44">
         <f>E50+F50</f>
         <v>0</v>
       </c>
-      <c r="F51" s="29"/>
+      <c r="F51" s="44"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="31">
+      <c r="C52" s="36"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="33">
         <f>E40-E51</f>
         <v>0</v>
       </c>
-      <c r="F52" s="32"/>
+      <c r="F52" s="34"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
@@ -1975,284 +1975,270 @@
       <c r="B55" s="11"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="25"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="39"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="11"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="25"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="39"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="26" t="s">
+      <c r="C58" s="39"/>
+      <c r="D58" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="41" t="s">
         <v>42</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="19"/>
+      <c r="C63" s="41"/>
       <c r="D63" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="19"/>
+      <c r="C64" s="41"/>
       <c r="D64" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="19"/>
+      <c r="C65" s="41"/>
       <c r="D65" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="41" t="s">
         <v>51</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="36" t="s">
+      <c r="A67" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B67" s="37"/>
-      <c r="C67" s="19"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="41"/>
       <c r="D67" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="19"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="41"/>
       <c r="D68" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="19"/>
+      <c r="C69" s="41"/>
       <c r="D69" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="49" t="s">
         <v>54</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
+      <c r="A71" s="49"/>
       <c r="B71" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
     </row>
     <row r="73" spans="1:6" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
     </row>
     <row r="75" spans="1:6" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="E79" s="23"/>
+      <c r="E79" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A41:A51"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A53:F53"/>
@@ -2273,43 +2259,57 @@
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="E67:F67"/>
     <mergeCell ref="E68:F68"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A41:A51"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/gzl_reporte/report/FormatoEntrevista.xlsx
+++ b/gzl_reporte/report/FormatoEntrevista.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gizlocorp\promoautoecuador\gzl_reporte\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DF1505-C737-4D44-ABC3-7128E455812F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2426E35-D328-4417-98F4-075B8E7BDF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entrevista" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Entrevista!$A$1:$F$79</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -368,7 +371,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +455,13 @@
       <b/>
       <sz val="15"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="singleAccounting"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -625,7 +635,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -660,6 +670,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1294,13 +1307,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A50" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F80" sqref="A1:F80"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A71" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
@@ -1311,21 +1324,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="14" t="s">
         <v>87</v>
       </c>
@@ -1333,9 +1346,9 @@
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="14" t="s">
         <v>88</v>
       </c>
@@ -1343,252 +1356,252 @@
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="A6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
@@ -1597,116 +1610,116 @@
       <c r="B27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30" t="s">
+      <c r="D27" s="31"/>
+      <c r="E27" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="30"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32">
-        <v>0</v>
-      </c>
-      <c r="F28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33">
+        <v>0</v>
+      </c>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32">
-        <v>0</v>
-      </c>
-      <c r="F29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33">
+        <v>0</v>
+      </c>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32">
-        <v>0</v>
-      </c>
-      <c r="F30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33">
+        <v>0</v>
+      </c>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32">
-        <v>0</v>
-      </c>
-      <c r="F31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33">
+        <v>0</v>
+      </c>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32">
-        <v>0</v>
-      </c>
-      <c r="F32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33">
+        <v>0</v>
+      </c>
+      <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32">
-        <v>0</v>
-      </c>
-      <c r="F33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32">
-        <v>0</v>
-      </c>
-      <c r="F34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="33">
+        <v>0</v>
+      </c>
+      <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="6" t="s">
         <v>22</v>
       </c>
@@ -1715,14 +1728,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
       <c r="E37" s="7">
         <v>0</v>
       </c>
@@ -1731,12 +1744,12 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="40" t="s">
+      <c r="A38" s="46"/>
+      <c r="B38" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
       <c r="E38" s="7">
         <v>0</v>
       </c>
@@ -1745,12 +1758,12 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="40" t="s">
+      <c r="A39" s="46"/>
+      <c r="B39" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="7">
         <f>SUM(E37:E38)</f>
         <v>0</v>
@@ -1760,27 +1773,27 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="40" t="s">
+      <c r="A40" s="46"/>
+      <c r="B40" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="44">
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="45">
         <f>E39+F39</f>
         <v>0</v>
       </c>
-      <c r="F40" s="44"/>
+      <c r="F40" s="45"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
       <c r="E41" s="7">
         <v>0</v>
       </c>
@@ -1789,12 +1802,12 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="40" t="s">
+      <c r="A42" s="46"/>
+      <c r="B42" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
       <c r="E42" s="7">
         <v>0</v>
       </c>
@@ -1803,12 +1816,12 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
-      <c r="B43" s="40" t="s">
+      <c r="A43" s="46"/>
+      <c r="B43" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
       <c r="E43" s="7">
         <v>0</v>
       </c>
@@ -1817,12 +1830,12 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="40" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
       <c r="E44" s="7">
         <v>0</v>
       </c>
@@ -1831,12 +1844,12 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
-      <c r="B45" s="40" t="s">
+      <c r="A45" s="46"/>
+      <c r="B45" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
       <c r="E45" s="7">
         <v>0</v>
       </c>
@@ -1845,12 +1858,12 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
-      <c r="B46" s="40" t="s">
+      <c r="A46" s="46"/>
+      <c r="B46" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
       <c r="E46" s="7">
         <v>0</v>
       </c>
@@ -1859,12 +1872,12 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
-      <c r="B47" s="40" t="s">
+      <c r="A47" s="46"/>
+      <c r="B47" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
       <c r="E47" s="7">
         <v>0</v>
       </c>
@@ -1873,12 +1886,12 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
-      <c r="B48" s="40" t="s">
+      <c r="A48" s="46"/>
+      <c r="B48" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="7">
         <v>0</v>
       </c>
@@ -1887,12 +1900,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
-      <c r="B49" s="40" t="s">
+      <c r="A49" s="46"/>
+      <c r="B49" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
       <c r="E49" s="7">
         <v>0</v>
       </c>
@@ -1901,12 +1914,12 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
-      <c r="B50" s="40" t="s">
+      <c r="A50" s="46"/>
+      <c r="B50" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
       <c r="E50" s="7">
         <f>SUM(E41:E48)</f>
         <v>0</v>
@@ -1917,46 +1930,46 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
-      <c r="B51" s="40" t="s">
+      <c r="A51" s="46"/>
+      <c r="B51" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="44">
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="45">
         <f>E50+F50</f>
         <v>0</v>
       </c>
-      <c r="F51" s="44"/>
+      <c r="F51" s="45"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="33">
+      <c r="C52" s="37"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="34">
         <f>E40-E51</f>
         <v>0</v>
       </c>
-      <c r="F52" s="34"/>
+      <c r="F52" s="35"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+    </row>
+    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C54" s="10" t="s">
@@ -1975,235 +1988,235 @@
       <c r="B55" s="11"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="40"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="11"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="40"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="39"/>
-      <c r="D58" s="15" t="s">
+      <c r="C58" s="40"/>
+      <c r="D58" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="41"/>
+      <c r="C63" s="42"/>
       <c r="D63" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="41"/>
+      <c r="C64" s="42"/>
       <c r="D64" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="41"/>
+      <c r="C65" s="42"/>
       <c r="D65" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="41" t="s">
+      <c r="C66" s="42" t="s">
         <v>51</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B67" s="43"/>
-      <c r="C67" s="41"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="42"/>
       <c r="D67" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="41"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="42"/>
       <c r="D68" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="41"/>
+      <c r="C69" s="42"/>
       <c r="D69" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="49" t="s">
+      <c r="A70" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
+      <c r="A71" s="50"/>
       <c r="B71" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:6" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="46"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
     </row>
     <row r="75" spans="1:6" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="47"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D79" s="48" t="s">
+      <c r="D79" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="E79" s="48"/>
+      <c r="E79" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="103">

--- a/gzl_reporte/report/FormatoEntrevista.xlsx
+++ b/gzl_reporte/report/FormatoEntrevista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gizlocorp\promoautoecuador\gzl_reporte\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2426E35-D328-4417-98F4-075B8E7BDF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6261AD69-4970-4A54-9E10-1D973FD6B7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -336,22 +336,6 @@
 Autorizo a Promoautoecuadora consultar, transferir o entregar informacion referente a mi comportamiento de credito a las autoridades competentes, organismos de control, buros de informacion de credito publicos o privados y otras instituciones o personas juridicas legalmete facultadas, asi comp para que pueda dar a conocer tal comportamiento creditivio para fines de analisis.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="22"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PROMOAUTO ECUADOR S.A. </t>
-    </r>
-  </si>
-  <si>
     <t>FECHA DE ADJUDICACIÓN</t>
   </si>
   <si>
@@ -362,6 +346,9 @@
   </si>
   <si>
     <t>SOCIO                  GARANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             PROMOAUTO ECUADOR S.A. </t>
   </si>
 </sst>
 </file>
@@ -371,7 +358,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,23 +401,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="26"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="26"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -445,7 +415,7 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="24"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -453,15 +423,36 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="12"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u val="singleAccounting"/>
+      <b/>
+      <u/>
       <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -635,7 +626,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -644,143 +635,163 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1307,716 +1318,716 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A71" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:F75"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="28" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="29"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="A6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
     </row>
     <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="3" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="3" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="3" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="3" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31" t="s">
+      <c r="D27" s="46"/>
+      <c r="E27" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="31"/>
+      <c r="F27" s="46"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33">
-        <v>0</v>
-      </c>
-      <c r="F28" s="33"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49">
+        <v>0</v>
+      </c>
+      <c r="F28" s="49"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33">
-        <v>0</v>
-      </c>
-      <c r="F29" s="33"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49">
+        <v>0</v>
+      </c>
+      <c r="F29" s="49"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33">
-        <v>0</v>
-      </c>
-      <c r="F30" s="33"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49">
+        <v>0</v>
+      </c>
+      <c r="F30" s="49"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33">
-        <v>0</v>
-      </c>
-      <c r="F31" s="33"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49">
+        <v>0</v>
+      </c>
+      <c r="F31" s="49"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33">
-        <v>0</v>
-      </c>
-      <c r="F32" s="33"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49">
+        <v>0</v>
+      </c>
+      <c r="F32" s="49"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33">
-        <v>0</v>
-      </c>
-      <c r="F33" s="33"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49">
+        <v>0</v>
+      </c>
+      <c r="F33" s="49"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33">
-        <v>0</v>
-      </c>
-      <c r="F34" s="33"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25">
+        <v>0</v>
+      </c>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="6" t="s">
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="7">
-        <v>0</v>
-      </c>
-      <c r="F37" s="7">
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="51">
+        <v>0</v>
+      </c>
+      <c r="F37" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="41" t="s">
+      <c r="A38" s="50"/>
+      <c r="B38" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="7">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="51">
+        <v>0</v>
+      </c>
+      <c r="F38" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="41" t="s">
+      <c r="A39" s="50"/>
+      <c r="B39" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="7">
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="51">
         <f>SUM(E37:E38)</f>
         <v>0</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
-      <c r="B40" s="41" t="s">
+      <c r="A40" s="50"/>
+      <c r="B40" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="45">
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="52">
         <f>E39+F39</f>
         <v>0</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="52"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="7">
-        <v>0</v>
-      </c>
-      <c r="F41" s="7">
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="51">
+        <v>0</v>
+      </c>
+      <c r="F41" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
-      <c r="B42" s="41" t="s">
+      <c r="A42" s="50"/>
+      <c r="B42" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="7">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7">
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="51">
+        <v>0</v>
+      </c>
+      <c r="F42" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="41" t="s">
+      <c r="A43" s="50"/>
+      <c r="B43" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="7">
-        <v>0</v>
-      </c>
-      <c r="F43" s="7">
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="51">
+        <v>0</v>
+      </c>
+      <c r="F43" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="41" t="s">
+      <c r="A44" s="50"/>
+      <c r="B44" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="7">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7">
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="51">
+        <v>0</v>
+      </c>
+      <c r="F44" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="41" t="s">
+      <c r="A45" s="50"/>
+      <c r="B45" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="7">
-        <v>0</v>
-      </c>
-      <c r="F45" s="7">
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="51">
+        <v>0</v>
+      </c>
+      <c r="F45" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="46"/>
-      <c r="B46" s="41" t="s">
+      <c r="A46" s="50"/>
+      <c r="B46" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="7">
-        <v>0</v>
-      </c>
-      <c r="F46" s="7">
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="51">
+        <v>0</v>
+      </c>
+      <c r="F46" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
-      <c r="B47" s="41" t="s">
+      <c r="A47" s="50"/>
+      <c r="B47" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="7">
-        <v>0</v>
-      </c>
-      <c r="F47" s="7">
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="51">
+        <v>0</v>
+      </c>
+      <c r="F47" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
-      <c r="B48" s="41" t="s">
+      <c r="A48" s="50"/>
+      <c r="B48" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="7">
-        <v>0</v>
-      </c>
-      <c r="F48" s="7">
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="51">
+        <v>0</v>
+      </c>
+      <c r="F48" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
-      <c r="B49" s="41" t="s">
+      <c r="A49" s="50"/>
+      <c r="B49" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="7">
-        <v>0</v>
-      </c>
-      <c r="F49" s="7">
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="51">
+        <v>0</v>
+      </c>
+      <c r="F49" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="41" t="s">
+      <c r="A50" s="50"/>
+      <c r="B50" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="7">
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="51">
         <f>SUM(E41:E48)</f>
         <v>0</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="51">
         <f>SUM(F41:F48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
-      <c r="B51" s="41" t="s">
+      <c r="A51" s="50"/>
+      <c r="B51" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="45">
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="52">
         <f>E50+F50</f>
         <v>0</v>
       </c>
-      <c r="F51" s="45"/>
+      <c r="F51" s="52"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="36" t="s">
+      <c r="A52" s="53"/>
+      <c r="B52" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="34">
+      <c r="C52" s="58"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="54">
         <f>E40-E51</f>
         <v>0</v>
       </c>
-      <c r="F52" s="35"/>
+      <c r="F52" s="55"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-    </row>
-    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F54" s="10"/>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="40"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="15"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="40"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="15"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="40"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="16" t="s">
         <v>79</v>
       </c>
@@ -2025,253 +2036,231 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="40"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="40"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="42" t="s">
+      <c r="C62" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="42"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="42"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="42"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="42"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="43"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="42"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="42"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="50"/>
-      <c r="B71" s="8" t="s">
+      <c r="A71" s="17"/>
+      <c r="B71" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
     </row>
     <row r="73" spans="1:6" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="47" t="s">
+      <c r="A73" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="47"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
     </row>
     <row r="75" spans="1:6" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="48" t="s">
+      <c r="A75" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="48"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D79" s="49" t="s">
+      <c r="D79" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E79" s="49"/>
+      <c r="E79" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A41:A51"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B22:F22"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="C33:D33"/>
@@ -2293,36 +2282,58 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A41:A51"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C71:F71"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/gzl_reporte/report/FormatoEntrevista.xlsx
+++ b/gzl_reporte/report/FormatoEntrevista.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gizlocorp\promoautoecuador\gzl_reporte\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6261AD69-4970-4A54-9E10-1D973FD6B7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE224397-6CD6-4EBD-9B95-D4E39C17CA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,7 +626,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -649,9 +649,135 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -661,136 +787,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1318,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1335,402 +1338,402 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="38" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="38" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="36"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="A6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="40" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="40" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="40" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="40" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="40" t="s">
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="40" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="40" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46" t="s">
+      <c r="D27" s="39"/>
+      <c r="E27" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="46"/>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49">
-        <v>0</v>
-      </c>
-      <c r="F28" s="49"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="37">
+        <v>0</v>
+      </c>
+      <c r="F28" s="37"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49">
-        <v>0</v>
-      </c>
-      <c r="F29" s="49"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="37">
+        <v>0</v>
+      </c>
+      <c r="F29" s="37"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49">
-        <v>0</v>
-      </c>
-      <c r="F30" s="49"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="37">
+        <v>0</v>
+      </c>
+      <c r="F30" s="37"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49">
-        <v>0</v>
-      </c>
-      <c r="F31" s="49"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="37">
+        <v>0</v>
+      </c>
+      <c r="F31" s="37"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49">
-        <v>0</v>
-      </c>
-      <c r="F32" s="49"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="37">
+        <v>0</v>
+      </c>
+      <c r="F32" s="37"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49">
-        <v>0</v>
-      </c>
-      <c r="F33" s="49"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="37">
+        <v>0</v>
+      </c>
+      <c r="F33" s="37"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25">
-        <v>0</v>
-      </c>
-      <c r="F34" s="25"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="38">
+        <v>0</v>
+      </c>
+      <c r="F34" s="38"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="5" t="s">
         <v>22</v>
       </c>
@@ -1739,57 +1742,57 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="51">
-        <v>0</v>
-      </c>
-      <c r="F37" s="51">
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="18">
+        <v>0</v>
+      </c>
+      <c r="F37" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="56" t="s">
+      <c r="A38" s="53"/>
+      <c r="B38" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="51">
-        <v>0</v>
-      </c>
-      <c r="F38" s="51">
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="18">
+        <v>0</v>
+      </c>
+      <c r="F38" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="56" t="s">
+      <c r="A39" s="53"/>
+      <c r="B39" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="51">
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="18">
         <f>SUM(E37:E38)</f>
         <v>0</v>
       </c>
-      <c r="F39" s="51">
+      <c r="F39" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="56" t="s">
+      <c r="A40" s="53"/>
+      <c r="B40" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="52">
         <f>E39+F39</f>
         <v>0</v>
@@ -1797,156 +1800,156 @@
       <c r="F40" s="52"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="51">
-        <v>0</v>
-      </c>
-      <c r="F41" s="51">
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="18">
+        <v>0</v>
+      </c>
+      <c r="F41" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="56" t="s">
+      <c r="A42" s="53"/>
+      <c r="B42" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="51">
-        <v>0</v>
-      </c>
-      <c r="F42" s="51">
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="18">
+        <v>0</v>
+      </c>
+      <c r="F42" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="56" t="s">
+      <c r="A43" s="53"/>
+      <c r="B43" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="51">
-        <v>0</v>
-      </c>
-      <c r="F43" s="51">
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="18">
+        <v>0</v>
+      </c>
+      <c r="F43" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="56" t="s">
+      <c r="A44" s="53"/>
+      <c r="B44" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="51">
-        <v>0</v>
-      </c>
-      <c r="F44" s="51">
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="18">
+        <v>0</v>
+      </c>
+      <c r="F44" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="56" t="s">
+      <c r="A45" s="53"/>
+      <c r="B45" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="51">
-        <v>0</v>
-      </c>
-      <c r="F45" s="51">
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="18">
+        <v>0</v>
+      </c>
+      <c r="F45" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="56" t="s">
+      <c r="A46" s="53"/>
+      <c r="B46" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="51">
-        <v>0</v>
-      </c>
-      <c r="F46" s="51">
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="18">
+        <v>0</v>
+      </c>
+      <c r="F46" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="56" t="s">
+      <c r="A47" s="53"/>
+      <c r="B47" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="51">
-        <v>0</v>
-      </c>
-      <c r="F47" s="51">
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="18">
+        <v>0</v>
+      </c>
+      <c r="F47" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="56" t="s">
+      <c r="A48" s="53"/>
+      <c r="B48" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="51">
-        <v>0</v>
-      </c>
-      <c r="F48" s="51">
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="18">
+        <v>0</v>
+      </c>
+      <c r="F48" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="56" t="s">
+      <c r="A49" s="53"/>
+      <c r="B49" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="51">
-        <v>0</v>
-      </c>
-      <c r="F49" s="51">
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="18">
+        <v>0</v>
+      </c>
+      <c r="F49" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
-      <c r="B50" s="56" t="s">
+      <c r="A50" s="53"/>
+      <c r="B50" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="51">
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="18">
         <f>SUM(E41:E48)</f>
         <v>0</v>
       </c>
-      <c r="F50" s="51">
+      <c r="F50" s="18">
         <f>SUM(F41:F48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
-      <c r="B51" s="56" t="s">
+      <c r="A51" s="53"/>
+      <c r="B51" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
       <c r="E51" s="52">
         <f>E50+F50</f>
         <v>0</v>
@@ -1954,27 +1957,27 @@
       <c r="F51" s="52"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
-      <c r="B52" s="57" t="s">
+      <c r="A52" s="17"/>
+      <c r="B52" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="54">
+      <c r="C52" s="43"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="40">
         <f>E40-E51</f>
         <v>0</v>
       </c>
-      <c r="F52" s="55"/>
+      <c r="F52" s="41"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
@@ -1999,268 +2002,290 @@
       <c r="B55" s="8"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="15"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="46"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="8"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="15"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="46"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="16" t="s">
+      <c r="C58" s="46"/>
+      <c r="D58" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="49" t="s">
         <v>42</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="20"/>
+      <c r="C63" s="49"/>
       <c r="D63" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="20"/>
+      <c r="C64" s="49"/>
       <c r="D64" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="20"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="49" t="s">
         <v>51</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="20"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="49"/>
       <c r="D67" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="20"/>
+      <c r="A68" s="50"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="20"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="58" t="s">
         <v>54</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
     </row>
     <row r="73" spans="1:6" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
     </row>
     <row r="75" spans="1:6" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E79" s="13"/>
+      <c r="E79" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A41:A51"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="C33:D33"/>
@@ -2282,58 +2307,36 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A41:A51"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/gzl_reporte/report/FormatoEntrevista.xlsx
+++ b/gzl_reporte/report/FormatoEntrevista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gizlocorp\promoautoecuador\gzl_reporte\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE224397-6CD6-4EBD-9B95-D4E39C17CA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D971B7E4-628C-4BBD-AFC9-9CCC7887CF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -670,15 +670,96 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,87 +795,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1321,15 +1321,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
@@ -1338,21 +1338,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="59"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="11" t="s">
         <v>86</v>
       </c>
@@ -1360,9 +1360,9 @@
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="11" t="s">
         <v>87</v>
       </c>
@@ -1370,252 +1370,252 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="32"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="59"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="A6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="48"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
     </row>
     <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
@@ -1624,116 +1624,116 @@
       <c r="B27" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39" t="s">
+      <c r="D27" s="46"/>
+      <c r="E27" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="39"/>
+      <c r="F27" s="46"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="37">
-        <v>0</v>
-      </c>
-      <c r="F28" s="37"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="44">
+        <v>0</v>
+      </c>
+      <c r="F28" s="44"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="16"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="37">
-        <v>0</v>
-      </c>
-      <c r="F29" s="37"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="44">
+        <v>0</v>
+      </c>
+      <c r="F29" s="44"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="37">
-        <v>0</v>
-      </c>
-      <c r="F30" s="37"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="44">
+        <v>0</v>
+      </c>
+      <c r="F30" s="44"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="16"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="37">
-        <v>0</v>
-      </c>
-      <c r="F31" s="37"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="44">
+        <v>0</v>
+      </c>
+      <c r="F31" s="44"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="37">
-        <v>0</v>
-      </c>
-      <c r="F32" s="37"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="44">
+        <v>0</v>
+      </c>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="16"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="37">
-        <v>0</v>
-      </c>
-      <c r="F33" s="37"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="44">
+        <v>0</v>
+      </c>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="38">
-        <v>0</v>
-      </c>
-      <c r="F34" s="38"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="45">
+        <v>0</v>
+      </c>
+      <c r="F34" s="45"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="5" t="s">
         <v>22</v>
       </c>
@@ -1742,14 +1742,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="18">
         <v>0</v>
       </c>
@@ -1758,12 +1758,12 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="18">
         <v>0</v>
       </c>
@@ -1772,12 +1772,12 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="54" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="18">
         <f>SUM(E37:E38)</f>
         <v>0</v>
@@ -1787,27 +1787,27 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="54" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="52">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="28">
         <f>E39+F39</f>
         <v>0</v>
       </c>
-      <c r="F40" s="52"/>
+      <c r="F40" s="28"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="18">
         <v>0</v>
       </c>
@@ -1816,12 +1816,12 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
-      <c r="B42" s="54" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="18">
         <v>0</v>
       </c>
@@ -1830,12 +1830,12 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
-      <c r="B43" s="54" t="s">
+      <c r="A43" s="29"/>
+      <c r="B43" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="18">
         <v>0</v>
       </c>
@@ -1844,12 +1844,12 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
-      <c r="B44" s="54" t="s">
+      <c r="A44" s="29"/>
+      <c r="B44" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
       <c r="E44" s="18">
         <v>0</v>
       </c>
@@ -1858,12 +1858,12 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
-      <c r="B45" s="54" t="s">
+      <c r="A45" s="29"/>
+      <c r="B45" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="18">
         <v>0</v>
       </c>
@@ -1872,12 +1872,12 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="54" t="s">
+      <c r="A46" s="29"/>
+      <c r="B46" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
       <c r="E46" s="18">
         <v>0</v>
       </c>
@@ -1886,12 +1886,12 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="54" t="s">
+      <c r="A47" s="29"/>
+      <c r="B47" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
       <c r="E47" s="18">
         <v>0</v>
       </c>
@@ -1900,12 +1900,12 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="54" t="s">
+      <c r="A48" s="29"/>
+      <c r="B48" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
       <c r="E48" s="18">
         <v>0</v>
       </c>
@@ -1914,12 +1914,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="54" t="s">
+      <c r="A49" s="29"/>
+      <c r="B49" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="18">
         <v>0</v>
       </c>
@@ -1928,12 +1928,12 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="54" t="s">
+      <c r="A50" s="29"/>
+      <c r="B50" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="18">
         <f>SUM(E41:E48)</f>
         <v>0</v>
@@ -1944,40 +1944,40 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
-      <c r="B51" s="54" t="s">
+      <c r="A51" s="29"/>
+      <c r="B51" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="52">
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="28">
         <f>E50+F50</f>
         <v>0</v>
       </c>
-      <c r="F51" s="52"/>
+      <c r="F51" s="28"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="43"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="40">
+      <c r="C52" s="34"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="31">
         <f>E40-E51</f>
         <v>0</v>
       </c>
-      <c r="F52" s="41"/>
+      <c r="F52" s="32"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
@@ -2002,290 +2002,268 @@
       <c r="B55" s="8"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="46"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="24"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="8"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="46"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="24"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="47" t="s">
+      <c r="C58" s="24"/>
+      <c r="D58" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="37" t="s">
         <v>42</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="49"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="49"/>
+      <c r="C64" s="37"/>
       <c r="D64" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="49"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="50" t="s">
+      <c r="A67" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B67" s="51"/>
-      <c r="C67" s="49"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="37"/>
       <c r="D67" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="49"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="49"/>
+      <c r="C69" s="37"/>
       <c r="D69" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="58" t="s">
+      <c r="A70" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
     </row>
     <row r="73" spans="1:6" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="55" t="s">
+      <c r="A73" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="55"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
     </row>
     <row r="75" spans="1:6" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="56"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D79" s="57" t="s">
+      <c r="D79" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E79" s="57"/>
+      <c r="E79" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A41:A51"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B22:F22"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="C33:D33"/>
@@ -2307,36 +2285,58 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A41:A51"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C71:F71"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/gzl_reporte/report/FormatoEntrevista.xlsx
+++ b/gzl_reporte/report/FormatoEntrevista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gizlocorp\promoautoecuador\gzl_reporte\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D971B7E4-628C-4BBD-AFC9-9CCC7887CF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B64CA8-5AB2-4A88-8B0E-5FD03006C98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,7 +348,7 @@
     <t>SOCIO                  GARANTE</t>
   </si>
   <si>
-    <t xml:space="preserve">             PROMOAUTO ECUADOR S.A. </t>
+    <t xml:space="preserve">                     PROMOAUTO ECUADOR S.A. </t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,14 +415,6 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
@@ -453,6 +445,21 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -626,7 +633,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -637,164 +644,197 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1322,418 +1362,418 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="58" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="10"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="11" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="11" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="59"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="A6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="12" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="48"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="12" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="12" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="12" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="12" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-    </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="12" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="12" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46" t="s">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="46"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="44">
-        <v>0</v>
-      </c>
-      <c r="F28" s="44"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="25">
+        <v>0</v>
+      </c>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="44">
-        <v>0</v>
-      </c>
-      <c r="F29" s="44"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="25">
+        <v>0</v>
+      </c>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="44">
-        <v>0</v>
-      </c>
-      <c r="F30" s="44"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="25">
+        <v>0</v>
+      </c>
+      <c r="F30" s="25"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="44">
-        <v>0</v>
-      </c>
-      <c r="F31" s="44"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="25">
+        <v>0</v>
+      </c>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="44">
-        <v>0</v>
-      </c>
-      <c r="F32" s="44"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="25">
+        <v>0</v>
+      </c>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="44">
-        <v>0</v>
-      </c>
-      <c r="F33" s="44"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="25">
+        <v>0</v>
+      </c>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="45">
-        <v>0</v>
-      </c>
-      <c r="F34" s="45"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="26">
+        <v>0</v>
+      </c>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="5" t="s">
         <v>22</v>
       </c>
@@ -1741,529 +1781,553 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+    <row r="37" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="18">
-        <v>0</v>
-      </c>
-      <c r="F37" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="30" t="s">
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="14">
+        <v>0</v>
+      </c>
+      <c r="F37" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
+      <c r="B38" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="18">
-        <v>0</v>
-      </c>
-      <c r="F38" s="18">
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="14">
+        <v>0</v>
+      </c>
+      <c r="F38" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30" t="s">
+      <c r="A39" s="38"/>
+      <c r="B39" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="18">
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="14">
         <f>SUM(E37:E38)</f>
         <v>0</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="28">
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="37">
         <f>E39+F39</f>
         <v>0</v>
       </c>
-      <c r="F40" s="28"/>
+      <c r="F40" s="37"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="18">
-        <v>0</v>
-      </c>
-      <c r="F41" s="18">
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="14">
+        <v>0</v>
+      </c>
+      <c r="F41" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="30" t="s">
+      <c r="A42" s="38"/>
+      <c r="B42" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="18">
-        <v>0</v>
-      </c>
-      <c r="F42" s="18">
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="14">
+        <v>0</v>
+      </c>
+      <c r="F42" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30" t="s">
+      <c r="A43" s="38"/>
+      <c r="B43" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="18">
-        <v>0</v>
-      </c>
-      <c r="F43" s="18">
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="14">
+        <v>0</v>
+      </c>
+      <c r="F43" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="30" t="s">
+      <c r="A44" s="38"/>
+      <c r="B44" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="18">
-        <v>0</v>
-      </c>
-      <c r="F44" s="18">
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="14">
+        <v>0</v>
+      </c>
+      <c r="F44" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="30" t="s">
+      <c r="A45" s="38"/>
+      <c r="B45" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="18">
-        <v>0</v>
-      </c>
-      <c r="F45" s="18">
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="14">
+        <v>0</v>
+      </c>
+      <c r="F45" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="30" t="s">
+      <c r="A46" s="38"/>
+      <c r="B46" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="18">
-        <v>0</v>
-      </c>
-      <c r="F46" s="18">
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="14">
+        <v>0</v>
+      </c>
+      <c r="F46" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="30" t="s">
+      <c r="A47" s="38"/>
+      <c r="B47" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="18">
-        <v>0</v>
-      </c>
-      <c r="F47" s="18">
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="14">
+        <v>0</v>
+      </c>
+      <c r="F47" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30" t="s">
+      <c r="A48" s="38"/>
+      <c r="B48" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="18">
-        <v>0</v>
-      </c>
-      <c r="F48" s="18">
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="14">
+        <v>0</v>
+      </c>
+      <c r="F48" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="30" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="18">
-        <v>0</v>
-      </c>
-      <c r="F49" s="18">
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="14">
+        <v>0</v>
+      </c>
+      <c r="F49" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30" t="s">
+      <c r="A50" s="38"/>
+      <c r="B50" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="18">
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="14">
         <f>SUM(E41:E48)</f>
         <v>0</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="14">
         <f>SUM(F41:F48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="30" t="s">
+      <c r="A51" s="38"/>
+      <c r="B51" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="28">
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="37">
         <f>E50+F50</f>
         <v>0</v>
       </c>
-      <c r="F51" s="28"/>
+      <c r="F51" s="37"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="33" t="s">
+      <c r="A52" s="13"/>
+      <c r="B52" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="31">
+      <c r="C52" s="31"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="28">
         <f>E40-E51</f>
         <v>0</v>
       </c>
-      <c r="F52" s="32"/>
+      <c r="F52" s="29"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="F54" s="7"/>
+      <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="24"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="47"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="24"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="47"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="25" t="s">
+      <c r="C58" s="50"/>
+      <c r="D58" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="37" t="s">
+      <c r="C62" s="34" t="s">
         <v>42</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="37"/>
+      <c r="C63" s="34"/>
       <c r="D63" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="37"/>
+      <c r="C64" s="34"/>
       <c r="D64" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="37"/>
+      <c r="C65" s="34"/>
       <c r="D65" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="37" t="s">
+      <c r="C66" s="34" t="s">
         <v>51</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B67" s="39"/>
-      <c r="C67" s="37"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="34"/>
       <c r="D67" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="37"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="34"/>
       <c r="D68" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="37"/>
+      <c r="C69" s="34"/>
       <c r="D69" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="58"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
-      <c r="B71" s="6" t="s">
+      <c r="A71" s="41"/>
+      <c r="B71" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="58"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-    </row>
-    <row r="73" spans="1:6" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="1:6" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-    </row>
-    <row r="75" spans="1:6" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="21" t="s">
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" spans="1:6" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="D79" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="E79" s="22"/>
+      <c r="E79" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B22:F22"/>
+  <mergeCells count="107">
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A41:A51"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="C33:D33"/>
@@ -2285,58 +2349,38 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A41:A51"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
